--- a/Outputs/PtX_demand_SE.xlsx
+++ b/Outputs/PtX_demand_SE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,62 +493,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.001791074666066297</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0006654177536922233</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2.347046654219773e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0003419141445128</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.001791074666066297</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>4.291642936587502e-05</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0006654177536922233</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.347046654219773e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0003419141445128</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2030</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>4.291642936587502e-05</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -560,7 +560,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -587,18 +587,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0001622218546732632</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001906551883337717</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>7.344404016194889e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -606,24 +612,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0001622218546732632</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001906551883337717</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>7.344404016194889e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -632,17 +632,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.01189286934959282</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001842478701587</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0004687691089909</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.012748643301911</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0004544966168855</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0101141989679102</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -650,30 +662,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.01189286934959282</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0001842478701587</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0004687691089909</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.012748643301911</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0004544966168855</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0101141989679102</v>
-      </c>
+      <c r="E9" t="n">
+        <v>5.85212486519479e-05</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -682,7 +684,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>5.85212486519479e-05</v>
+        <v>0.0006126746823103291</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -694,83 +696,99 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.001791074666066297</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.291642936587502e-05</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.0006126746823103291</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.0008334177856355403</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01274894229161881</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0001842478701587</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0004687714560375542</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01316400148658575</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004544966168855</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0101141989679102</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.006453909620060234</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0032052968789016</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.964737282708978e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0005161598021466999</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.006453909620060234</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4.050221105330121e-05</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0032052968789016</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.964737282708978e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0005161598021466999</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>4.050221105330121e-05</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -782,7 +800,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -791,17 +809,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.160199838827579e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.682369877596612e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -809,14 +831,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.0006482590092512301</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.160199838827579e-09</v>
+        <v>0.0002379655023168528</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.682369877596612e-10</v>
+        <v>0.0001159811217527595</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -824,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,24 +856,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.0006482590092512301</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002379655023168528</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.0001159811217527595</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -858,17 +876,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.005067997332865368</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003003544246197</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0007278258227681</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.008551460336099801</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0005521396254591</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0115019808757939</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -876,30 +906,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.005067997332865368</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0003003544246197</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0007278258227681</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.008551460336099801</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0005521396254591</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0115019808757939</v>
-      </c>
+      <c r="E19" t="n">
+        <v>6.024014726360105e-05</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -908,7 +928,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>6.024014726360105e-05</v>
+        <v>0.002480070273995504</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -920,83 +940,99 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.006453909620060234</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.050221105330121e-05</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.002480070273995504</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.003188569430510335</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.008511260874283661</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0003003544246197</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0007280222964963709</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.009183601428236248</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0005521396254591</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0115019808757939</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.01428046091689043</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0044422352797505</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3.330071437758206e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0008272266979925001</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.01428046091689043</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>3.798149834801283e-05</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0044422352797505</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>3.330071437758206e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0008272266979925001</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2050</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>3.798149834801283e-05</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1008,7 +1044,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1017,17 +1053,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>9.696041495515883e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.911530650737594e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1035,14 +1075,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.001618772759674906</v>
+      </c>
       <c r="F26" t="n">
-        <v>9.696041495515883e-09</v>
+        <v>3.920483739871504e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.911530650737594e-09</v>
+        <v>3.255847693348614e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1050,7 +1092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1058,24 +1100,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.001618772759674906</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3.920483739871504e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>2.543041249633832e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.106043005517058e-11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.518568555691239e-11</v>
+      </c>
       <c r="I27" t="n">
-        <v>3.255847693348614e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.37508106488464e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.781508059597097e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8.293100622859092e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1085,28 +1133,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2.543041249633832e-11</v>
+        <v>0.0004646638809505013</v>
       </c>
       <c r="G28" t="n">
-        <v>1.106043005517058e-11</v>
+        <v>0.0005366806231406999</v>
       </c>
       <c r="H28" t="n">
-        <v>1.518568555691239e-11</v>
+        <v>0.0011499337023014</v>
       </c>
       <c r="I28" t="n">
-        <v>1.37508106488464e-10</v>
+        <v>0.0022152590609124</v>
       </c>
       <c r="J28" t="n">
-        <v>3.781508059597097e-12</v>
+        <v>0.0007101389924668</v>
       </c>
       <c r="K28" t="n">
-        <v>8.293100622859092e-10</v>
+        <v>0.0163580702292064</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1114,30 +1162,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0004646638809505013</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0005366806231406999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0011499337023014</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0022152590609124</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0007101389924668</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0163580702292064</v>
-      </c>
+      <c r="E29" t="n">
+        <v>6.206055625769702e-05</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1146,7 +1184,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>6.206055625769702e-05</v>
+        <v>0.006276851166159292</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1158,23 +1196,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.01428046091689043</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.798149834801283e-05</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.006276851166159292</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.007957684482091896</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.004946113719571624</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00053668063420113</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001150266724630861</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.003075049284877143</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.000710138996248308</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01635807105851646</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_SE.xlsx
+++ b/Outputs/PtX_demand_SE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -613,17 +613,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0025617408934113</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0002728638287244</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -632,29 +636,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.01189286934959282</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0001842478701587</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0004687691089909</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.012748643301911</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0004544966168855</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0101141989679102</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,20 +654,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>5.85212486519479e-05</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.01189286934959282</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001842478701587</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0037413218503423</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.012748643301911</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004544966168855</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0101141989679102</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -683,147 +685,157 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0006126746823103291</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.1187344724613382</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00129760371974</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0337179086254337</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08143998967468191</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002751068978187</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.09821737666215119</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.001791074666066297</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.291642936587502e-05</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0008334177856355403</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01274894229161881</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001842478701587</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0004687714560375542</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01316400148658575</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0004544966168855</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0101141989679102</v>
-      </c>
+        <v>5.85212486519479e-05</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006453909620060234</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0032052968789016</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0006126746823103291</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.964737282708978e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0005161598021466999</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001791074666066297</v>
+      </c>
       <c r="D13" t="n">
-        <v>4.050221105330121e-05</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>4.291642936587502e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0008334177856355403</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1340451556463683</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0014818515898987</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03745923282282266</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.09487685498999207</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0032055655950725</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1083315756300614</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>0.006453909620060234</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0032052968789016</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.964737282708978e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0005161598021466999</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>4.050221105330121e-05</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.160199838827579e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.682369877596612e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -831,24 +843,18 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.0006482590092512301</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002379655023168528</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.0001159811217527595</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -857,17 +863,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.160199838827579e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.682369877596612e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -875,30 +885,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.0006482590092512301</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.005067997332865368</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0003003544246197</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0007278258227681</v>
-      </c>
+        <v>0.0002379655023168528</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.008551460336099801</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0005521396254591</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0115019808757939</v>
-      </c>
+        <v>0.0001159811217527595</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -906,20 +910,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>6.024014726360105e-05</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.001377107705422</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0002920576662881</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -927,9 +933,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.002480070273995504</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -940,32 +944,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.006453909620060234</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.050221105330121e-05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.003188569430510335</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.008511260874283661</v>
+        <v>0.005067997332865368</v>
       </c>
       <c r="G21" t="n">
         <v>0.0003003544246197</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007280222964963709</v>
+        <v>0.0047116911082996</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009183601428236248</v>
+        <v>0.008551460336099801</v>
       </c>
       <c r="J21" t="n">
         <v>0.0005521396254591</v>
@@ -977,44 +975,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01428046091689043</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0044422352797505</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0318974994688805</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001394996141792</v>
+      </c>
       <c r="H22" t="n">
-        <v>3.330071437758206e-07</v>
+        <v>0.0318594924366628</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0008272266979925001</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0370039623846701</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0024413275936083</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0950828563896442</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>3.798149834801283e-05</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>6.024014726360105e-05</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1025,15 +1027,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.002480070273995504</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1044,47 +1048,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.006453909620060234</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.050221105330121e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.003188569430510335</v>
+      </c>
       <c r="F25" t="n">
-        <v>9.696041495515883e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.04178586804858616</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0016953505664117</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03657138001869067</v>
+      </c>
       <c r="I25" t="n">
-        <v>4.911530650737594e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.04647962147919445</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0029934672190674</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1065848372654381</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.01428046091689043</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.001618772759674906</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.920483739871504e-05</v>
+        <v>0.0044422352797505</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>3.330071437758206e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>3.255847693348614e-05</v>
+        <v>0.0008272266979925001</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1092,38 +1112,28 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>3.798149834801283e-05</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>2.543041249633832e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.106043005517058e-11</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.518568555691239e-11</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.37508106488464e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.781508059597097e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8.293100622859092e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1132,29 +1142,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0004646638809505013</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0005366806231406999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0011499337023014</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0022152590609124</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0007101389924668</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0163580702292064</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1162,20 +1160,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>6.206055625769702e-05</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>9.696041495515883e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.911530650737594e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1184,50 +1184,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.006276851166159292</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.001618772759674906</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.920483739871504e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>3.255847693348614e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>7.973232881405235e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.0001050758894760794</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.543041249633832e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.106043005517058e-11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.686731898598195e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.37508106488464e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.781508059597097e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.293100622859092e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0004646638809505013</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0005366806231406999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006367938891605199</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0022152590609124</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0007101389924668</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0163580702292064</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0016600861490302</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0012582274413164</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.028206035481243</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0065271019946059</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.002101374917429</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0884168443851004</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>6.206055625769702e-05</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.006276851166159292</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.01428046091689043</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>3.798149834801283e-05</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.007957684482091896</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.004946113719571624</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.00053668063420113</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.001150266724630861</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.003075049284877143</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.000710138996248308</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01635807105851646</v>
+      <c r="F37" t="n">
+        <v>0.006685932197415876</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00179490807551753</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03457430754866516</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.009707227168959123</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.002811513913677308</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1047749154436169</v>
       </c>
     </row>
   </sheetData>
